--- a/eca-report/src/main/resources/templates/classifier-options-requests-report-template.xlsx
+++ b/eca-report/src/main/resources/templates/classifier-options-requests-report-template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет по классификаторам" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет по оптимальным настройкам" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -695,7 +695,7 @@
     <col min="4" max="4" width="41.44140625" customWidth="1"/>
     <col min="5" max="5" width="42.44140625" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="30.88671875" customWidth="1"/>
     <col min="10" max="10" width="34.33203125" customWidth="1"/>
